--- a/biology/Zoologie/Encyocrypta_tindia/Encyocrypta_tindia.xlsx
+++ b/biology/Zoologie/Encyocrypta_tindia/Encyocrypta_tindia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta tindia est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta tindia est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers Farino[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers Farino.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 19 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 19 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Rivière Tindia.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
